--- a/Country_Data/Destination_Slovakia-2019.xlsx
+++ b/Country_Data/Destination_Slovakia-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EFA330-0AF2-4D67-BB6B-5257C5CC6191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A183215-9506-4624-93E2-6E592D1A071B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -327,6 +327,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -812,12 +821,12 @@
       <c r="A8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="22">
         <v>3583</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22">
         <v>8650</v>
       </c>
       <c r="F8" s="3"/>
@@ -833,12 +842,12 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="23">
         <v>20859</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
         <v>46790</v>
       </c>
       <c r="F9" s="5"/>
@@ -854,12 +863,12 @@
       <c r="A10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="23">
         <v>9710</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
         <v>35416</v>
       </c>
       <c r="F10" s="5"/>
@@ -875,12 +884,12 @@
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="23">
         <v>14826</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
         <v>38779</v>
       </c>
       <c r="F11" s="5"/>
@@ -896,12 +905,12 @@
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="23">
         <v>3678</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <v>8033</v>
       </c>
       <c r="F12" s="5"/>
@@ -917,12 +926,12 @@
       <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="23">
         <v>777283</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
         <v>2104939</v>
       </c>
       <c r="F13" s="5"/>
@@ -938,12 +947,12 @@
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="23">
         <v>684</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23">
         <v>1741</v>
       </c>
       <c r="F14" s="5"/>
@@ -959,12 +968,12 @@
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="23">
         <v>10385</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23">
         <v>24408</v>
       </c>
       <c r="F15" s="5"/>
@@ -980,12 +989,12 @@
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="23">
         <v>5153</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23">
         <v>13212</v>
       </c>
       <c r="F16" s="5"/>
@@ -1001,12 +1010,12 @@
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="23">
         <v>14269</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23">
         <v>36419</v>
       </c>
       <c r="F17" s="5"/>
@@ -1022,12 +1031,12 @@
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="23">
         <v>45979</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23">
         <v>95350</v>
       </c>
       <c r="F18" s="5"/>
@@ -1043,12 +1052,12 @@
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="23">
         <v>11779</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23">
         <v>24808</v>
       </c>
       <c r="F19" s="5"/>
@@ -1064,12 +1073,12 @@
       <c r="A20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="23">
         <v>30218</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23">
         <v>64030</v>
       </c>
       <c r="F20" s="5"/>
@@ -1085,12 +1094,12 @@
       <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="23">
         <v>21527</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
         <v>39342</v>
       </c>
       <c r="F21" s="5"/>
@@ -1106,12 +1115,12 @@
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="23">
         <v>15776</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23">
         <v>35273</v>
       </c>
       <c r="F22" s="5"/>
@@ -1127,12 +1136,12 @@
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="23">
         <v>1731</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23">
         <v>4077</v>
       </c>
       <c r="F23" s="5"/>
@@ -1148,12 +1157,12 @@
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="23">
         <v>396</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23">
         <v>928</v>
       </c>
       <c r="F24" s="5"/>
@@ -1169,12 +1178,12 @@
       <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="23">
         <v>19718</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23">
         <v>46629</v>
       </c>
       <c r="F25" s="5"/>
@@ -1190,12 +1199,12 @@
       <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="23">
         <v>11325</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23">
         <v>29109</v>
       </c>
       <c r="F26" s="5"/>
@@ -1211,12 +1220,12 @@
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="23">
         <v>932</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23">
         <v>1945</v>
       </c>
       <c r="F27" s="5"/>
@@ -1232,12 +1241,12 @@
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="23">
         <v>3443</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23">
         <v>8335</v>
       </c>
       <c r="F28" s="5"/>
@@ -1253,12 +1262,12 @@
       <c r="A29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="23">
         <v>3025</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23">
         <v>8534</v>
       </c>
       <c r="F29" s="5"/>
@@ -1274,12 +1283,12 @@
       <c r="A30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="23">
         <v>2227</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23">
         <v>9114</v>
       </c>
       <c r="F30" s="5"/>
@@ -1295,12 +1304,12 @@
       <c r="A31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="23">
         <v>124306</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23">
         <v>262369</v>
       </c>
       <c r="F31" s="5"/>
@@ -1316,12 +1325,12 @@
       <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="23">
         <v>182378</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23">
         <v>470321</v>
       </c>
       <c r="F32" s="5"/>
@@ -1337,12 +1346,12 @@
       <c r="A33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="23">
         <v>9554</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23">
         <v>21314</v>
       </c>
       <c r="F33" s="5"/>
@@ -1358,12 +1367,12 @@
       <c r="A34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="23">
         <v>239866</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23">
         <v>581151</v>
       </c>
       <c r="F34" s="5"/>
@@ -1379,12 +1388,12 @@
       <c r="A35" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="23">
         <v>7806</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23">
         <v>17483</v>
       </c>
       <c r="F35" s="5"/>
@@ -1400,12 +1409,12 @@
       <c r="A36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="23">
         <v>96613</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23">
         <v>180986</v>
       </c>
       <c r="F36" s="5"/>
@@ -1421,12 +1430,12 @@
       <c r="A37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="23">
         <v>36044</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23">
         <v>88195</v>
       </c>
       <c r="F37" s="5"/>
@@ -1442,12 +1451,12 @@
       <c r="A38" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="23">
         <v>52327</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23">
         <v>143524</v>
       </c>
       <c r="F38" s="5"/>
@@ -1463,12 +1472,12 @@
       <c r="A39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="23">
         <v>22403</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23">
         <v>42210</v>
       </c>
       <c r="F39" s="5"/>
@@ -1484,12 +1493,12 @@
       <c r="A40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="23">
         <v>20414</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23">
         <v>78014</v>
       </c>
       <c r="F40" s="5"/>
@@ -1505,12 +1514,12 @@
       <c r="A41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="23">
         <v>35223</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23">
         <v>74191</v>
       </c>
       <c r="F41" s="5"/>
@@ -1526,12 +1535,12 @@
       <c r="A42" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="23">
         <v>26758</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23">
         <v>57081</v>
       </c>
       <c r="F42" s="5"/>
@@ -1547,12 +1556,12 @@
       <c r="A43" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="23">
         <v>18586</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23">
         <v>40986</v>
       </c>
       <c r="F43" s="5"/>
@@ -1568,12 +1577,12 @@
       <c r="A44" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="23">
         <v>66418</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5">
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23">
         <v>154472</v>
       </c>
       <c r="F44" s="5"/>
@@ -1589,12 +1598,12 @@
       <c r="A45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="23">
         <v>89089</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23">
         <v>357610</v>
       </c>
       <c r="F45" s="5"/>
@@ -1610,12 +1619,12 @@
       <c r="A46" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="23">
         <v>88997</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5">
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23">
         <v>200066</v>
       </c>
       <c r="F46" s="5"/>
@@ -1631,12 +1640,12 @@
       <c r="A47" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="24">
         <v>4606</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6">
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24">
         <v>12649</v>
       </c>
       <c r="F47" s="6"/>
@@ -1652,12 +1661,12 @@
       <c r="A48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="23">
         <v>9151</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23">
         <v>20662</v>
       </c>
       <c r="F48" s="5"/>
